--- a/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11906</v>
+        <v>11240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28631</v>
+        <v>26823</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04920662161064488</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03190324707955744</v>
+        <v>0.03012000578337698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07672073334595535</v>
+        <v>0.07187614217778106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>52041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39040</v>
+        <v>39005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67127</v>
+        <v>67353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08854251390672963</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06642224910188549</v>
+        <v>0.06636298208674379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1142099372840303</v>
+        <v>0.1145949309824552</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>70404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54715</v>
+        <v>56262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88892</v>
+        <v>88059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07326607065466935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05693923402120744</v>
+        <v>0.05854887514217916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09250498561896442</v>
+        <v>0.09163852885847083</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>32317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22346</v>
+        <v>23434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43829</v>
+        <v>45363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08659559137345398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05987874142919919</v>
+        <v>0.06279345563749006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1174446847529284</v>
+        <v>0.1215549998608997</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -836,19 +836,19 @@
         <v>82883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67237</v>
+        <v>67524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100449</v>
+        <v>100940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.141017894324552</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1143971013386645</v>
+        <v>0.1148864413666879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1709045330639336</v>
+        <v>0.1717397246228402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>111</v>
@@ -857,19 +857,19 @@
         <v>115200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>98007</v>
+        <v>96043</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138444</v>
+        <v>136584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1198825094597314</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1019905668276525</v>
+        <v>0.09994747162799603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1440720597324785</v>
+        <v>0.1421364243600683</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>322509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>310261</v>
+        <v>307228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>334829</v>
+        <v>333810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8641977870159011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8313788502023073</v>
+        <v>0.8232512189381964</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.897210819698956</v>
+        <v>0.8944787741058654</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>449</v>
@@ -907,19 +907,19 @@
         <v>452825</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>431821</v>
+        <v>430112</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>472813</v>
+        <v>470405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7704395917687183</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7347030930154865</v>
+        <v>0.731795589918373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8044473180396646</v>
+        <v>0.8003497637240757</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>794</v>
@@ -928,19 +928,19 @@
         <v>775334</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>747108</v>
+        <v>752560</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>797338</v>
+        <v>802176</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8068514198855993</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7774777341312372</v>
+        <v>0.7831512868305067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8297492379996123</v>
+        <v>0.8347841762903517</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4991</v>
+        <v>4660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0109667754376508</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05666164868951273</v>
+        <v>0.05290112705418862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7308</v>
+        <v>6953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03303041069079647</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1174710433412393</v>
+        <v>0.1117558247251024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1074,19 +1074,19 @@
         <v>3021</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8150</v>
+        <v>8157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02009962937021269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006058908375581847</v>
+        <v>0.006043080972902366</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05422533712888417</v>
+        <v>0.05427532961259274</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>5235</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2421</v>
+        <v>2321</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11778</v>
+        <v>10245</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05943462509716415</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02748827211340681</v>
+        <v>0.02635142391949946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1337144369789693</v>
+        <v>0.1163105667239303</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1124,19 +1124,19 @@
         <v>6645</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2982</v>
+        <v>2348</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13512</v>
+        <v>13139</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1068163352072952</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0479360938751323</v>
+        <v>0.0377497361463038</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2171941979179587</v>
+        <v>0.2111897027945946</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1145,19 +1145,19 @@
         <v>11880</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6041</v>
+        <v>6597</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19406</v>
+        <v>21076</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07904745102298809</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04019347487722317</v>
+        <v>0.04389588708853741</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1291190094066441</v>
+        <v>0.1402281148195497</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>81882</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75293</v>
+        <v>76349</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85380</v>
+        <v>85319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9295985994651851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8547981306211749</v>
+        <v>0.8667864824418398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.969311725068617</v>
+        <v>0.9686202397949358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1195,19 +1195,19 @@
         <v>53512</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46903</v>
+        <v>46583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57850</v>
+        <v>58174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8601532541019083</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7539187789056092</v>
+        <v>0.748785584194432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9298895047768094</v>
+        <v>0.9350978281544591</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -1216,19 +1216,19 @@
         <v>135394</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126855</v>
+        <v>126952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141403</v>
+        <v>141601</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9008529196067993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8440378507760428</v>
+        <v>0.8446830874867705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9408340901214441</v>
+        <v>0.9421515452480571</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5110</v>
+        <v>5226</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02318860659642652</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1240463819592315</v>
+        <v>0.1268677140568061</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6689</v>
+        <v>5955</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04318515409034161</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2488369293018284</v>
+        <v>0.22153156145821</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7349</v>
+        <v>6638</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03108463536706713</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1079571915544811</v>
+        <v>0.09750575898590456</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8971</v>
+        <v>8585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06345829178252897</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.217782676671109</v>
+        <v>0.2084044497834027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1412,19 +1412,19 @@
         <v>5219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1817</v>
+        <v>2082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10458</v>
+        <v>10717</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.194158743760374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06757738863883225</v>
+        <v>0.07746164307681744</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3890546664534272</v>
+        <v>0.3986715442210212</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1433,19 +1433,19 @@
         <v>7833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3268</v>
+        <v>3475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15597</v>
+        <v>14919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.115067927369214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04800910349479203</v>
+        <v>0.05104152827746341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2291080120046001</v>
+        <v>0.2191569564000297</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>37625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31164</v>
+        <v>31605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40269</v>
+        <v>40267</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9133531016210445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7565165082475144</v>
+        <v>0.7672280989230928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9775454812572416</v>
+        <v>0.9774862555133051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1483,19 +1483,19 @@
         <v>20501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15111</v>
+        <v>14760</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24397</v>
+        <v>23919</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7626561021492844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5621307267692885</v>
+        <v>0.5490682662454373</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9076062183048695</v>
+        <v>0.8898234053483661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -1504,19 +1504,19 @@
         <v>58126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50319</v>
+        <v>50191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62986</v>
+        <v>63603</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8538474372637189</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7391721626165036</v>
+        <v>0.737293464317059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9252441163895321</v>
+        <v>0.934314052184036</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>20285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13043</v>
+        <v>13707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29350</v>
+        <v>30249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04037007294722576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02595790127949391</v>
+        <v>0.02727975918907561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05841162013131979</v>
+        <v>0.06020159891334523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1629,19 +1629,19 @@
         <v>55257</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41050</v>
+        <v>42509</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72117</v>
+        <v>73004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08163876367045232</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06064990420222593</v>
+        <v>0.06280541976522044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1065495363373529</v>
+        <v>0.1078591556710384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -1650,19 +1650,19 @@
         <v>75541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59602</v>
+        <v>58788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94069</v>
+        <v>92831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06405547404745575</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05053981157945576</v>
+        <v>0.04984994358657179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07976608851931895</v>
+        <v>0.07871643945211088</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>40166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29083</v>
+        <v>29398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54246</v>
+        <v>53924</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07993735507681454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0578807022030773</v>
+        <v>0.05850785438250945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1079602621196252</v>
+        <v>0.1073185004957643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -1700,19 +1700,19 @@
         <v>94748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76619</v>
+        <v>78046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113785</v>
+        <v>114321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1399847463091624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1132000463322732</v>
+        <v>0.1153090662107757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1681117676071608</v>
+        <v>0.1689037662487529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -1721,19 +1721,19 @@
         <v>134913</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113567</v>
+        <v>112857</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157792</v>
+        <v>157902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1144004437146165</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09629962637654239</v>
+        <v>0.09569746602334878</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1338007787114317</v>
+        <v>0.1338940362963451</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>442016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>426540</v>
+        <v>426991</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>455207</v>
+        <v>454178</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8796925719759597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8488941350133183</v>
+        <v>0.8497902315861281</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9059458618658085</v>
+        <v>0.9038975820684862</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>522</v>
@@ -1771,19 +1771,19 @@
         <v>526838</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>502623</v>
+        <v>504644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>546689</v>
+        <v>548216</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7783764900203852</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7426001766360397</v>
+        <v>0.7455857230946255</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8077049347681514</v>
+        <v>0.8099618304640137</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>981</v>
@@ -1792,19 +1792,19 @@
         <v>968854</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>940898</v>
+        <v>941056</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>996459</v>
+        <v>996341</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8215440822379277</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7978392509410759</v>
+        <v>0.7979730295827008</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8449519285314004</v>
+        <v>0.8448521907156873</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>46532</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33841</v>
+        <v>34086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61548</v>
+        <v>61847</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1122881882175338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08166370057358135</v>
+        <v>0.0822543587183673</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1485227840857914</v>
+        <v>0.1492455157540836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -2156,19 +2156,19 @@
         <v>103127</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84440</v>
+        <v>84988</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122453</v>
+        <v>123523</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1625216636639884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1330712196687119</v>
+        <v>0.1339349015346173</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1929775348501328</v>
+        <v>0.1946638890644858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -2177,19 +2177,19 @@
         <v>149659</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>126765</v>
+        <v>127221</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171910</v>
+        <v>174570</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1426763034568971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1208499884087853</v>
+        <v>0.1212846291147506</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1638891895733075</v>
+        <v>0.1664245744199825</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>47149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35034</v>
+        <v>33743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61373</v>
+        <v>62356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1137772197225051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0845414542468578</v>
+        <v>0.08142562205603542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1481010400210877</v>
+        <v>0.1504739300578918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -2227,19 +2227,19 @@
         <v>92801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76090</v>
+        <v>75570</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113846</v>
+        <v>111724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1462475588504152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1199134143389072</v>
+        <v>0.1190927880327747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1794139867343469</v>
+        <v>0.1760699831268694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>126</v>
@@ -2248,19 +2248,19 @@
         <v>139950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115999</v>
+        <v>116380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163248</v>
+        <v>163307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1334197469120066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1105866787488821</v>
+        <v>0.1109494687141133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1556314035347336</v>
+        <v>0.1556870905871014</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>320717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>301253</v>
+        <v>303379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>336842</v>
+        <v>338616</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7739345920599611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7269660837251741</v>
+        <v>0.7320950089615881</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8128462571754067</v>
+        <v>0.8171284798552299</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>417</v>
@@ -2298,19 +2298,19 @@
         <v>438617</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>414204</v>
+        <v>415553</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>463214</v>
+        <v>460764</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6912307774855965</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6527582714646338</v>
+        <v>0.6548836101595849</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7299934182662757</v>
+        <v>0.7261322518650458</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>713</v>
@@ -2319,19 +2319,19 @@
         <v>759333</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>727939</v>
+        <v>728591</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>789710</v>
+        <v>790124</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7239039496310963</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6939744040845841</v>
+        <v>0.694596296754399</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7528636778846314</v>
+        <v>0.7532584874790886</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>3077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8525</v>
+        <v>9221</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02593275410744036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008167296418406127</v>
+        <v>0.008008791763716574</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07183702038086043</v>
+        <v>0.07770611894990881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -2444,19 +2444,19 @@
         <v>4450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10811</v>
+        <v>10368</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05357014597383855</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01318182341860041</v>
+        <v>0.01305563851931059</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1301353219246053</v>
+        <v>0.1248014562695793</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -2465,19 +2465,19 @@
         <v>7528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3123</v>
+        <v>3199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14705</v>
+        <v>15113</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03731358973247013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01547887941854357</v>
+        <v>0.01585678377557706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07289232247687669</v>
+        <v>0.07491584601312928</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>12359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6891</v>
+        <v>6418</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22594</v>
+        <v>20896</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1041478798115779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05806958079082116</v>
+        <v>0.05408724787974377</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1904046101431551</v>
+        <v>0.1760941568014514</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -2515,19 +2515,19 @@
         <v>8107</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3405</v>
+        <v>3410</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15641</v>
+        <v>15336</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09759282729795093</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04099074944738722</v>
+        <v>0.0410528578591289</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1882802839387992</v>
+        <v>0.1846042332764379</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -2536,19 +2536,19 @@
         <v>20466</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12690</v>
+        <v>11855</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32062</v>
+        <v>31000</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1014485666661241</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06290477011323564</v>
+        <v>0.0587630314031861</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1589297545420548</v>
+        <v>0.1536661295164344</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>103229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91561</v>
+        <v>93148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109625</v>
+        <v>109815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8699193660809817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7715908042349882</v>
+        <v>0.7849632257874375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9238149947570415</v>
+        <v>0.925423815363732</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -2586,19 +2586,19 @@
         <v>70516</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62685</v>
+        <v>62140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76467</v>
+        <v>76315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8488370267282105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7545705171454236</v>
+        <v>0.7480137290571234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9204626370545973</v>
+        <v>0.9186442725133384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -2607,19 +2607,19 @@
         <v>173745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161731</v>
+        <v>162260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182716</v>
+        <v>183847</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8612378436014058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8016851336579979</v>
+        <v>0.8043078773296126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9057061234845516</v>
+        <v>0.9113125974492184</v>
       </c>
     </row>
     <row r="11">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5278</v>
+        <v>5334</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03923360703863061</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1986170841285252</v>
+        <v>0.2007010018580365</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7148</v>
+        <v>7696</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1016764197981903</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3213133676549307</v>
+        <v>0.3459380125177446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -2753,19 +2753,19 @@
         <v>3305</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9448</v>
+        <v>8316</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06768680218565856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02083256417632425</v>
+        <v>0.02065533177094424</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1935130794065045</v>
+        <v>0.1703450561186647</v>
       </c>
     </row>
     <row r="13">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4685</v>
+        <v>4775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04731906176422252</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2105799785261089</v>
+        <v>0.2146454048085877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6385</v>
+        <v>6498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04174970202884427</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1307743422372208</v>
+        <v>0.133108157622112</v>
       </c>
     </row>
     <row r="14">
@@ -2853,7 +2853,7 @@
         <v>24547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2862,7 +2862,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2874,19 +2874,19 @@
         <v>18931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -2895,19 +2895,19 @@
         <v>43478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37276</v>
+        <v>37454</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46805</v>
+        <v>46828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8905634957854972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7635251311718171</v>
+        <v>0.7671753033115445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9587129865921835</v>
+        <v>0.9591848280688907</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>50652</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37615</v>
+        <v>37541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65909</v>
+        <v>67310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09050846534662826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06721275133572407</v>
+        <v>0.06708170626260658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1177716558420664</v>
+        <v>0.1202745726958644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -3020,19 +3020,19 @@
         <v>109839</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91433</v>
+        <v>91286</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131289</v>
+        <v>133317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.148458767401737</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1235804257125068</v>
+        <v>0.1233824825334704</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1774496470154645</v>
+        <v>0.1801910363357353</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -3041,19 +3041,19 @@
         <v>160491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>136224</v>
+        <v>136383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>184715</v>
+        <v>186366</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1235021796943483</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1048281230285613</v>
+        <v>0.1049498525076382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1421425844786131</v>
+        <v>0.1434131348908294</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>60493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47505</v>
+        <v>46133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78780</v>
+        <v>77299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1080937849406581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08488491685048921</v>
+        <v>0.08243311768992284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1407698905921389</v>
+        <v>0.1381236588630141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -3091,19 +3091,19 @@
         <v>101961</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85157</v>
+        <v>84835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122356</v>
+        <v>124135</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.137809906433205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1150977779803352</v>
+        <v>0.1146625585942512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1653759360500769</v>
+        <v>0.1677804762448026</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -3112,19 +3112,19 @@
         <v>162454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139820</v>
+        <v>139144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188189</v>
+        <v>189297</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1250125099391036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1075950427636465</v>
+        <v>0.1070748046875978</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1448162582656703</v>
+        <v>0.1456687040537065</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>448492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>427264</v>
+        <v>428171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>468190</v>
+        <v>469295</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8013977497127136</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7634662251781578</v>
+        <v>0.7650878338277133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8365959784909052</v>
+        <v>0.8385699890444683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>498</v>
@@ -3162,19 +3162,19 @@
         <v>528065</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>501291</v>
+        <v>501992</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>551584</v>
+        <v>552324</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.713731326165058</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6775444287251607</v>
+        <v>0.6784907260559067</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7455203083498588</v>
+        <v>0.7465195706767432</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>904</v>
@@ -3183,19 +3183,19 @@
         <v>976557</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>943881</v>
+        <v>940846</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1006909</v>
+        <v>1008581</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.751485310366548</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7263402993942851</v>
+        <v>0.7240048634299081</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.774842184243314</v>
+        <v>0.7761290546727487</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>31764</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22718</v>
+        <v>23194</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43088</v>
+        <v>44318</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08975437641030247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06419410590267748</v>
+        <v>0.06553773788817378</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1217524367306516</v>
+        <v>0.1252262155991538</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -3547,19 +3547,19 @@
         <v>61981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45852</v>
+        <v>47139</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78872</v>
+        <v>79612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1117262118579503</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08265223371707013</v>
+        <v>0.08497306730579152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1421736747392701</v>
+        <v>0.1435085416254067</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -3568,19 +3568,19 @@
         <v>93745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76715</v>
+        <v>77030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114124</v>
+        <v>116521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1031686883411989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08442701918342406</v>
+        <v>0.08477309863505064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1255961625806728</v>
+        <v>0.1282340692369033</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>29885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21254</v>
+        <v>21567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41300</v>
+        <v>41571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08444558511166715</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06005752951712579</v>
+        <v>0.06094204095726066</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1166985625988507</v>
+        <v>0.1174662334703942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -3618,19 +3618,19 @@
         <v>93169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75306</v>
+        <v>74530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113056</v>
+        <v>113052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1679461547228463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1357462178697731</v>
+        <v>0.1343475525308945</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2037940685984251</v>
+        <v>0.2037865967184919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -3639,19 +3639,19 @@
         <v>123055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99881</v>
+        <v>102308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144999</v>
+        <v>145737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1354246073167419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1099216771517377</v>
+        <v>0.1125924346735071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1595747384483114</v>
+        <v>0.1603874526921689</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>292251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>279052</v>
+        <v>278606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>305263</v>
+        <v>305254</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8258000384780304</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7885035172022199</v>
+        <v>0.7872417179967302</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8625647794028202</v>
+        <v>0.8625394013810667</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>347</v>
@@ -3689,19 +3689,19 @@
         <v>399607</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>376799</v>
+        <v>374783</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>423504</v>
+        <v>419997</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7203276334192035</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6792144375381307</v>
+        <v>0.675579616572168</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.763403720967994</v>
+        <v>0.7570829277253821</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>665</v>
@@ -3710,19 +3710,19 @@
         <v>691858</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>663984</v>
+        <v>664965</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>719735</v>
+        <v>718642</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7614067043420591</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7307304393095857</v>
+        <v>0.7318099337636081</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7920860834629502</v>
+        <v>0.7908822984772887</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>5021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1677</v>
+        <v>1726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10100</v>
+        <v>10244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02607676560829137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008712004814915873</v>
+        <v>0.008963999959167697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05245926822505639</v>
+        <v>0.05320522137301664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3835,19 +3835,19 @@
         <v>8775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3363</v>
+        <v>3447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18154</v>
+        <v>17659</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04665714378307445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01788242116903234</v>
+        <v>0.01832557904995086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09652545262919296</v>
+        <v>0.09389332654258041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -3856,19 +3856,19 @@
         <v>13796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6878</v>
+        <v>7403</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23265</v>
+        <v>24004</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0362464269381377</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01807081503210817</v>
+        <v>0.0194513850507874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0611266009642716</v>
+        <v>0.06306735274910942</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>10181</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5629</v>
+        <v>5649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18131</v>
+        <v>17460</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05287878913617619</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02923870474405289</v>
+        <v>0.0293426696908409</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09417090244240502</v>
+        <v>0.09068823412435981</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3906,19 +3906,19 @@
         <v>26481</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16256</v>
+        <v>17703</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37858</v>
+        <v>39532</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1408003950642947</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08643504466988812</v>
+        <v>0.0941257810137997</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2012937620364333</v>
+        <v>0.2101945002511444</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -3927,19 +3927,19 @@
         <v>36662</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25717</v>
+        <v>25710</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49143</v>
+        <v>50102</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09632468445800012</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06756780842049005</v>
+        <v>0.06754941229714309</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.129117009793211</v>
+        <v>0.1316362235629597</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>177331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168061</v>
+        <v>168674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183244</v>
+        <v>183038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9210444452555324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.872898757760406</v>
+        <v>0.876082918750146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9517604456736145</v>
+        <v>0.9506888220368767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -3977,19 +3977,19 @@
         <v>152818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139840</v>
+        <v>138734</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164847</v>
+        <v>163815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8125424611526308</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7435384233223401</v>
+        <v>0.7376569972479812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8764991365913102</v>
+        <v>0.8710144315604986</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>310</v>
@@ -3998,19 +3998,19 @@
         <v>330149</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>316697</v>
+        <v>314425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>343523</v>
+        <v>342610</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8674288886038621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8320864140664348</v>
+        <v>0.8261159074885827</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9025688222945296</v>
+        <v>0.9001692960441401</v>
       </c>
     </row>
     <row r="11">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7180</v>
+        <v>8181</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05491820555694648</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1708462182170812</v>
+        <v>0.1946576772921431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10503</v>
+        <v>8760</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03048968011484191</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1387408164268549</v>
+        <v>0.1157107781326927</v>
       </c>
     </row>
     <row r="13">
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5332</v>
+        <v>5298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04186689511430128</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1268664232381098</v>
+        <v>0.1260522937023959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4186,19 +4186,19 @@
         <v>4884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1220</v>
+        <v>1288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10721</v>
+        <v>11314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.145037773374997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03622716298397345</v>
+        <v>0.03825687427732271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3183848648203703</v>
+        <v>0.3359895033690292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4207,19 +4207,19 @@
         <v>6644</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2365</v>
+        <v>2760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13117</v>
+        <v>13991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08775900682691513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03123403751977695</v>
+        <v>0.03645307467627536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1732694935686373</v>
+        <v>0.1848142498206936</v>
       </c>
     </row>
     <row r="14">
@@ -4236,19 +4236,19 @@
         <v>37961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32762</v>
+        <v>31740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41116</v>
+        <v>40495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9032148993287522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7795175270154364</v>
+        <v>0.7551813311045463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9782671569690254</v>
+        <v>0.9635056764695976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -4257,19 +4257,19 @@
         <v>28790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22953</v>
+        <v>22360</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32454</v>
+        <v>32386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.854962226625003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6816151351796301</v>
+        <v>0.6640104966309709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9637728370160266</v>
+        <v>0.9617431257226773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>59</v>
@@ -4278,19 +4278,19 @@
         <v>66751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59109</v>
+        <v>59208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71642</v>
+        <v>71689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8817513130582429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7808057280678143</v>
+        <v>0.782107059068766</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9463542926387616</v>
+        <v>0.9469725950062129</v>
       </c>
     </row>
     <row r="15">
@@ -4382,19 +4382,19 @@
         <v>39093</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28812</v>
+        <v>28502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52297</v>
+        <v>51700</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06643239039842032</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04896112764155854</v>
+        <v>0.04843543956653318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08886976362090562</v>
+        <v>0.08785601419090609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -4403,19 +4403,19 @@
         <v>70756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53793</v>
+        <v>54590</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91399</v>
+        <v>91183</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09112096116190739</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06927520407171764</v>
+        <v>0.07030226337929164</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1177052773447812</v>
+        <v>0.1174269180516033</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -4424,19 +4424,19 @@
         <v>109849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87823</v>
+        <v>90475</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130286</v>
+        <v>132723</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08047726330831038</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06434041364113847</v>
+        <v>0.06628352663253359</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09545015269295314</v>
+        <v>0.09723515194637862</v>
       </c>
     </row>
     <row r="17">
@@ -4453,19 +4453,19 @@
         <v>41826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30700</v>
+        <v>31131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54041</v>
+        <v>54840</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07107656757552573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05216994414388556</v>
+        <v>0.05290217298372842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09183441044783081</v>
+        <v>0.09319242380548183</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -4474,19 +4474,19 @@
         <v>124534</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102908</v>
+        <v>104737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147440</v>
+        <v>149322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1603778423039077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1325272616099146</v>
+        <v>0.1348822119658591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1898759200461275</v>
+        <v>0.1922996856573904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -4495,19 +4495,19 @@
         <v>166360</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>140697</v>
+        <v>142571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>191067</v>
+        <v>193854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1218784169926749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1030768257027165</v>
+        <v>0.1044500893938238</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1399788599301063</v>
+        <v>0.142020719659207</v>
       </c>
     </row>
     <row r="18">
@@ -4524,19 +4524,19 @@
         <v>507544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>491173</v>
+        <v>492637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>522403</v>
+        <v>522974</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.862491042026054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8346711171345352</v>
+        <v>0.8371584707271424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8877415974277383</v>
+        <v>0.8887112465798663</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>499</v>
@@ -4545,19 +4545,19 @@
         <v>581215</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>554302</v>
+        <v>552881</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>606125</v>
+        <v>607147</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7485011965341849</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7138424800458733</v>
+        <v>0.7120115635980477</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7805803030650881</v>
+        <v>0.7818970695686472</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1034</v>
@@ -4566,19 +4566,19 @@
         <v>1088759</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1058900</v>
+        <v>1058749</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1120970</v>
+        <v>1121509</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7976443196990147</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7757689435045915</v>
+        <v>0.7756587411133578</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8212430500979481</v>
+        <v>0.8216376235682704</v>
       </c>
     </row>
     <row r="19">
@@ -4909,19 +4909,19 @@
         <v>36220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27668</v>
+        <v>27477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46183</v>
+        <v>46388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1255416942549432</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09589905782804203</v>
+        <v>0.09523593715291075</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1600718346963042</v>
+        <v>0.1607830943733627</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>226</v>
@@ -4930,19 +4930,19 @@
         <v>121933</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108609</v>
+        <v>107902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135970</v>
+        <v>136946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2263127120583007</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2015820865155512</v>
+        <v>0.2002709422897222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2523656991066072</v>
+        <v>0.2541778729562666</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>286</v>
@@ -4951,19 +4951,19 @@
         <v>158153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140518</v>
+        <v>142121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>175441</v>
+        <v>177544</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1911695107491645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1698528502347673</v>
+        <v>0.1717906852697632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2120658335204595</v>
+        <v>0.2146076277502992</v>
       </c>
     </row>
     <row r="5">
@@ -4980,19 +4980,19 @@
         <v>40281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31155</v>
+        <v>31450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50633</v>
+        <v>51267</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1396154557855984</v>
+        <v>0.1396154557855985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1079853857258241</v>
+        <v>0.1090062115136461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1754980886907056</v>
+        <v>0.1776935782655714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -5001,19 +5001,19 @@
         <v>111533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97139</v>
+        <v>97855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124914</v>
+        <v>125332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2070107098130363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1802932405639134</v>
+        <v>0.1816226956950499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2318450816665662</v>
+        <v>0.2326205932597746</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -5022,19 +5022,19 @@
         <v>151814</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>136248</v>
+        <v>133158</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169943</v>
+        <v>168615</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1835070772091816</v>
+        <v>0.1835070772091815</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1646908439667892</v>
+        <v>0.1609562077390845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2054202365174692</v>
+        <v>0.2038145196962751</v>
       </c>
     </row>
     <row r="6">
@@ -5051,19 +5051,19 @@
         <v>212012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199125</v>
+        <v>198648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>223864</v>
+        <v>224810</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7348428499594584</v>
+        <v>0.7348428499594585</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6901779755400186</v>
+        <v>0.6885249654892217</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7759224607983728</v>
+        <v>0.7792007071622641</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>579</v>
@@ -5072,19 +5072,19 @@
         <v>305315</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>289219</v>
+        <v>288631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>321852</v>
+        <v>321050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5666765781286628</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5368034417463606</v>
+        <v>0.5357115978826131</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5973700598116428</v>
+        <v>0.5958824338801036</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>886</v>
@@ -5093,19 +5093,19 @@
         <v>517326</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>496344</v>
+        <v>495912</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>537684</v>
+        <v>540083</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.625323412041654</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5999612362465834</v>
+        <v>0.5994385830498555</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6499312935623195</v>
+        <v>0.6528302789485002</v>
       </c>
     </row>
     <row r="7">
@@ -5197,19 +5197,19 @@
         <v>9736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5554</v>
+        <v>5571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15825</v>
+        <v>15437</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03204509836599191</v>
+        <v>0.03204509836599192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01827978642883853</v>
+        <v>0.01833633184825992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05208748136104715</v>
+        <v>0.05080980721756199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -5218,19 +5218,19 @@
         <v>15857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10560</v>
+        <v>10772</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22141</v>
+        <v>21972</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05711114850949724</v>
+        <v>0.05711114850949723</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03803335390804823</v>
+        <v>0.03879758179183698</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07974540570582576</v>
+        <v>0.07913763784000975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -5239,19 +5239,19 @@
         <v>25593</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19152</v>
+        <v>18821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35496</v>
+        <v>34854</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04401385359916134</v>
+        <v>0.04401385359916135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03293765366559757</v>
+        <v>0.0323685071621198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06104568310097677</v>
+        <v>0.05994099760463679</v>
       </c>
     </row>
     <row r="9">
@@ -5268,19 +5268,19 @@
         <v>21246</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15232</v>
+        <v>14764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30319</v>
+        <v>29140</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06992883805407414</v>
+        <v>0.06992883805407417</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05013302282030719</v>
+        <v>0.04859229403027214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09979144354511693</v>
+        <v>0.09590994542017021</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -5289,19 +5289,19 @@
         <v>34123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26684</v>
+        <v>25850</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42856</v>
+        <v>42477</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1229014975113887</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09610735611001049</v>
+        <v>0.09310484222020729</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.154353948552213</v>
+        <v>0.1529905321614614</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>95</v>
@@ -5310,19 +5310,19 @@
         <v>55369</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45446</v>
+        <v>44531</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67324</v>
+        <v>67336</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09522268337333409</v>
+        <v>0.09522268337333407</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07815680266672446</v>
+        <v>0.07658363465825123</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1157824592659547</v>
+        <v>0.1158022220236552</v>
       </c>
     </row>
     <row r="10">
@@ -5339,19 +5339,19 @@
         <v>272843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262938</v>
+        <v>263905</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>280386</v>
+        <v>281308</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8980260635799339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8654246026401193</v>
+        <v>0.8686070898854903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9228547386358545</v>
+        <v>0.9258870055401875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>436</v>
@@ -5360,19 +5360,19 @@
         <v>227666</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>217802</v>
+        <v>217498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>236869</v>
+        <v>236741</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.819987353979114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7844601647562932</v>
+        <v>0.7833634689626827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8531344647697823</v>
+        <v>0.852673529729747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>816</v>
@@ -5381,19 +5381,19 @@
         <v>500509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>486328</v>
+        <v>485282</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>511891</v>
+        <v>512106</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8607634630275047</v>
+        <v>0.8607634630275045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8363751159933412</v>
+        <v>0.8345762438008251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8803376855489988</v>
+        <v>0.8807084245007034</v>
       </c>
     </row>
     <row r="11">
@@ -5485,19 +5485,19 @@
         <v>2275</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6658</v>
+        <v>6618</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01932807224723312</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005647508376212127</v>
+        <v>0.005434654892585865</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05656063444154938</v>
+        <v>0.056227117167315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -5506,19 +5506,19 @@
         <v>1824</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5082</v>
+        <v>5015</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02201508055016555</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005818243017732851</v>
+        <v>0.005780954891183683</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06133547746648688</v>
+        <v>0.06052335532742808</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -5527,19 +5527,19 @@
         <v>4099</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1401</v>
+        <v>1431</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8579</v>
+        <v>8984</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0204381165709098</v>
+        <v>0.02043811657090981</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006986897781253541</v>
+        <v>0.007132765226691112</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04277503119361966</v>
+        <v>0.04479386833631203</v>
       </c>
     </row>
     <row r="13">
@@ -5556,19 +5556,19 @@
         <v>6478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3071</v>
+        <v>3036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12577</v>
+        <v>12958</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0550360772886097</v>
+        <v>0.05503607728860969</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02608756724437581</v>
+        <v>0.0257891503956011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1068541533476722</v>
+        <v>0.1100884630711738</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -5577,19 +5577,19 @@
         <v>6904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3932</v>
+        <v>3539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11105</v>
+        <v>11192</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08332422424191727</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04745266375419503</v>
+        <v>0.04271611476298156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1340313991587757</v>
+        <v>0.1350802813195476</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5598,19 +5598,19 @@
         <v>13382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8823</v>
+        <v>8509</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20216</v>
+        <v>20151</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06672234447229569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04399326921416245</v>
+        <v>0.04242384911970203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1007988265245747</v>
+        <v>0.1004714097924883</v>
       </c>
     </row>
     <row r="14">
@@ -5627,19 +5627,19 @@
         <v>108954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102514</v>
+        <v>102964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112991</v>
+        <v>112707</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9256358504641573</v>
+        <v>0.9256358504641571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8709281267248595</v>
+        <v>0.8747523109910379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9599312809177238</v>
+        <v>0.9575177720864221</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -5648,19 +5648,19 @@
         <v>74127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69875</v>
+        <v>69452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77596</v>
+        <v>77936</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8946606952079171</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.843335483138915</v>
+        <v>0.8382333525169303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9365261090323771</v>
+        <v>0.9406283565949363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>291</v>
@@ -5669,19 +5669,19 @@
         <v>183081</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>175197</v>
+        <v>175964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>188375</v>
+        <v>188810</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9128395389567945</v>
+        <v>0.9128395389567946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8735319980309905</v>
+        <v>0.8773564474765715</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9392344618041665</v>
+        <v>0.9414045638923991</v>
       </c>
     </row>
     <row r="15">
@@ -5773,19 +5773,19 @@
         <v>48232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38621</v>
+        <v>38217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59933</v>
+        <v>60884</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06792748588849987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05439221013643503</v>
+        <v>0.05382322373309862</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08440711608668695</v>
+        <v>0.08574701375940133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>258</v>
@@ -5794,19 +5794,19 @@
         <v>139614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124167</v>
+        <v>124024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>156899</v>
+        <v>156759</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1552501927156058</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1380736939100551</v>
+        <v>0.1379147215305643</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1744717524276942</v>
+        <v>0.1743154531359045</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>336</v>
@@ -5815,19 +5815,19 @@
         <v>187845</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166552</v>
+        <v>168950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>209163</v>
+        <v>208821</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1167228726571911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1034916167362687</v>
+        <v>0.1049816487144841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1299692463555309</v>
+        <v>0.1297565923967915</v>
       </c>
     </row>
     <row r="17">
@@ -5844,19 +5844,19 @@
         <v>68005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56553</v>
+        <v>56701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82656</v>
+        <v>82207</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09577582169519629</v>
+        <v>0.0957758216951963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0796463991458965</v>
+        <v>0.07985601451451683</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1164088445645347</v>
+        <v>0.1157771755778529</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>290</v>
@@ -5865,19 +5865,19 @@
         <v>152560</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137164</v>
+        <v>135180</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170374</v>
+        <v>167944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1696468479397666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1525257185708614</v>
+        <v>0.1503194755273833</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1894552486740891</v>
+        <v>0.1867536154604902</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -5886,19 +5886,19 @@
         <v>220565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>197170</v>
+        <v>199425</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>242382</v>
+        <v>242032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1370544928172537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1225171247255169</v>
+        <v>0.123918502554514</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1506107603032465</v>
+        <v>0.1503930049637165</v>
       </c>
     </row>
     <row r="18">
@@ -5915,19 +5915,19 @@
         <v>593808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>577241</v>
+        <v>577666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>609198</v>
+        <v>609569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8362966924163037</v>
+        <v>0.8362966924163039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8129644414479844</v>
+        <v>0.8135625883007782</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8579714838233463</v>
+        <v>0.8584935359968947</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1152</v>
@@ -5936,19 +5936,19 @@
         <v>607108</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>584762</v>
+        <v>585458</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>627958</v>
+        <v>627045</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6751029593446277</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6502538710306658</v>
+        <v>0.651027986649254</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6982884250921206</v>
+        <v>0.6972727043082242</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1993</v>
@@ -5957,19 +5957,19 @@
         <v>1200916</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1172569</v>
+        <v>1173729</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1229777</v>
+        <v>1227101</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7462226345255552</v>
+        <v>0.746222634525555</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7286081792432377</v>
+        <v>0.7293288236707237</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7641561536530049</v>
+        <v>0.7624932315675554</v>
       </c>
     </row>
     <row r="19">
